--- a/Comparativa de los modelos de Regresión.xlsx
+++ b/Comparativa de los modelos de Regresión.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Modelos Estadísticos (Regresión y Series Temporales)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FD275E-E850-4106-BE48-273D30E0EC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9EAA15-7669-4CE8-AD33-F1DD6F96D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{ECC90F48-4168-4106-8D46-7E3F68232450}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
   <si>
     <t>MODELOS DE REGRESIÓN</t>
   </si>
@@ -388,6 +388,27 @@
   </si>
   <si>
     <t>Resume el rendimiento del modelo en clasificación múltiple por clase.</t>
+  </si>
+  <si>
+    <t>5 meses</t>
+  </si>
+  <si>
+    <t>1600 gramos</t>
+  </si>
+  <si>
+    <t>8 meses</t>
+  </si>
+  <si>
+    <t>1000 gramos</t>
+  </si>
+  <si>
+    <t>50 cm</t>
+  </si>
+  <si>
+    <t>SARITA</t>
+  </si>
+  <si>
+    <t>COMERCIO</t>
   </si>
 </sst>
 </file>
@@ -416,7 +437,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -486,6 +513,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715D4029-70BA-4D28-99DF-B3F3016CF5E7}">
-  <dimension ref="B3:O12"/>
+  <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1118,6 +1146,39 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>250</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
